--- a/Student_Course_OM_Resources/Dataset/Student_Course_authentic_dataset_nospace.xlsx
+++ b/Student_Course_OM_Resources/Dataset/Student_Course_authentic_dataset_nospace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Student_Course_OM_Resources/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7F49FA-EE86-D943-A48A-55CB940FDF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778E15F7-4C1C-B942-B9A3-3D7AB6A850D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{F2EE80F2-3D71-2A42-A0FA-FCD8487160A1}"/>
   </bookViews>
@@ -576,13 +576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203999DC-4DF8-354D-893F-C71448A59A7E}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.83203125" customWidth="1"/>
+    <col min="1" max="1" width="94.83203125" customWidth="1"/>
     <col min="2" max="2" width="79.5" customWidth="1"/>
   </cols>
   <sheetData>
